--- a/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
+++ b/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>k</t>
   </si>
@@ -343,17 +343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -469,6 +458,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -534,6 +532,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,19 +556,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -882,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1779,7 @@
       <c r="BZ10" s="21"/>
       <c r="CA10" s="21"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1863,18 +1861,20 @@
       <c r="CA11" s="21"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="G12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -1960,10 +1960,18 @@
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="G13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -2041,14 +2049,28 @@
       <c r="B14" s="26">
         <v>20</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="26">
+        <v>26.47</v>
+      </c>
+      <c r="D14" s="27">
+        <f>C14/B14</f>
+        <v>1.3234999999999999</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>20</v>
+      </c>
+      <c r="I14" s="26">
+        <v>20.72</v>
+      </c>
+      <c r="J14" s="27">
+        <f>I14/H14</f>
+        <v>1.036</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -2126,14 +2148,28 @@
       <c r="B15" s="26">
         <v>20</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="26">
+        <v>26.84</v>
+      </c>
+      <c r="D15" s="27">
+        <f t="shared" ref="D15:D23" si="0">C15/B15</f>
+        <v>1.3420000000000001</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="G15" s="25">
+        <v>2</v>
+      </c>
+      <c r="H15" s="26">
+        <v>20</v>
+      </c>
+      <c r="I15" s="26">
+        <v>20.79</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" ref="J15:J23" si="1">I15/H15</f>
+        <v>1.0394999999999999</v>
+      </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -2211,14 +2247,28 @@
       <c r="B16" s="26">
         <v>20</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="26">
+        <v>26.68</v>
+      </c>
+      <c r="D16" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3340000000000001</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="G16" s="25">
+        <v>3</v>
+      </c>
+      <c r="H16" s="26">
+        <v>20</v>
+      </c>
+      <c r="I16" s="26">
+        <v>20.75</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0375000000000001</v>
+      </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -2296,14 +2346,28 @@
       <c r="B17" s="26">
         <v>20</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="26">
+        <v>26.69</v>
+      </c>
+      <c r="D17" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3345</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="G17" s="25">
+        <v>4</v>
+      </c>
+      <c r="H17" s="26">
+        <v>20</v>
+      </c>
+      <c r="I17" s="26">
+        <v>20.72</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="1"/>
+        <v>1.036</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -2381,14 +2445,28 @@
       <c r="B18" s="26">
         <v>20</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="26">
+        <v>26.78</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" si="0"/>
+        <v>1.339</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="G18" s="25">
+        <v>5</v>
+      </c>
+      <c r="H18" s="26">
+        <v>20</v>
+      </c>
+      <c r="I18" s="26">
+        <v>20.69</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0345</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -2466,14 +2544,28 @@
       <c r="B19" s="26">
         <v>20</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="26">
+        <v>26.75</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3374999999999999</v>
+      </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="G19" s="25">
+        <v>6</v>
+      </c>
+      <c r="H19" s="26">
+        <v>20</v>
+      </c>
+      <c r="I19" s="26">
+        <v>20.71</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0355000000000001</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -2551,14 +2643,28 @@
       <c r="B20" s="26">
         <v>20</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="26">
+        <v>26.75</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3374999999999999</v>
+      </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="25">
+        <v>7</v>
+      </c>
+      <c r="H20" s="26">
+        <v>20</v>
+      </c>
+      <c r="I20" s="26">
+        <v>20.69</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0345</v>
+      </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -2636,14 +2742,28 @@
       <c r="B21" s="26">
         <v>20</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="26">
+        <v>26.87</v>
+      </c>
+      <c r="D21" s="27">
+        <f t="shared" si="0"/>
+        <v>1.3435000000000001</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="25">
+        <v>8</v>
+      </c>
+      <c r="H21" s="26">
+        <v>20</v>
+      </c>
+      <c r="I21" s="26">
+        <v>20.69</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0345</v>
+      </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -2721,14 +2841,28 @@
       <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="26">
+        <v>26.54</v>
+      </c>
+      <c r="D22" s="27">
+        <f t="shared" si="0"/>
+        <v>1.327</v>
+      </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="25">
+        <v>9</v>
+      </c>
+      <c r="H22" s="26">
+        <v>20</v>
+      </c>
+      <c r="I22" s="26">
+        <v>20.62</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0310000000000001</v>
+      </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -2806,14 +2940,28 @@
       <c r="B23" s="26">
         <v>20</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="36">
+        <v>26.78</v>
+      </c>
+      <c r="D23" s="37">
+        <f t="shared" si="0"/>
+        <v>1.339</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="35">
+        <v>10</v>
+      </c>
+      <c r="H23" s="26">
+        <v>20</v>
+      </c>
+      <c r="I23" s="36">
+        <v>20.82</v>
+      </c>
+      <c r="J23" s="37">
+        <f t="shared" si="1"/>
+        <v>1.0409999999999999</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -2889,14 +3037,22 @@
         <v>48</v>
       </c>
       <c r="B24" s="40"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="27">
+        <f>AVERAGE(D14:D23)</f>
+        <v>1.3357500000000002</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="27">
+        <f>AVERAGE(J14:J23)</f>
+        <v>1.036</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
@@ -2968,18 +3124,20 @@
       <c r="CA24" s="21"/>
     </row>
     <row r="25" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="29"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
@@ -33113,12 +33271,15 @@
       <c r="BQ417" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
+++ b/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelka" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>k</t>
   </si>
@@ -171,13 +171,38 @@
   <si>
     <t>Niepewność u(T):</t>
   </si>
+  <si>
+    <t>(Ti-Tsr)^2</t>
+  </si>
+  <si>
+    <t>1. Io</t>
+  </si>
+  <si>
+    <t>g=[m/s^2]</t>
+  </si>
+  <si>
+    <t>2.Is</t>
+  </si>
+  <si>
+    <t>3.Is(geom)</t>
+  </si>
+  <si>
+    <t>[kg*m^2]</t>
+  </si>
+  <si>
+    <t>4.niep.A</t>
+  </si>
+  <si>
+    <t>u(l)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -471,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -573,6 +598,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,15 +911,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA417"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,8 +1559,12 @@
       <c r="CA7" s="19"/>
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="19">
+        <v>9.81</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1958,7 +1996,9 @@
       <c r="D13" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="19"/>
       <c r="G13" s="33" t="s">
         <v>44</v>
@@ -1972,7 +2012,9 @@
       <c r="J13" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -2056,7 +2098,10 @@
         <f>C14/B14</f>
         <v>1.3234999999999999</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="46">
+        <f>(D14-$D$24)^2</f>
+        <v>1.5006250000000775E-4</v>
+      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20">
         <v>1</v>
@@ -2071,7 +2116,10 @@
         <f>I14/H14</f>
         <v>1.036</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="46">
+        <f>(J14-$J$24)^2</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
@@ -2155,7 +2203,10 @@
         <f t="shared" ref="D15:D23" si="0">C15/B15</f>
         <v>1.3420000000000001</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="46">
+        <f t="shared" ref="E15:E23" si="1">(D15-$D$24)^2</f>
+        <v>3.9062499999998334E-5</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="20">
         <v>2</v>
@@ -2167,10 +2218,13 @@
         <v>20.79</v>
       </c>
       <c r="J15" s="22">
-        <f t="shared" ref="J15:J23" si="1">I15/H15</f>
+        <f t="shared" ref="J15:J23" si="2">I15/H15</f>
         <v>1.0394999999999999</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="46">
+        <f t="shared" ref="K15:K23" si="3">(J15-$J$24)^2</f>
+        <v>1.2249999999998856E-5</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
@@ -2254,7 +2308,10 @@
         <f t="shared" si="0"/>
         <v>1.3340000000000001</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="46">
+        <f t="shared" si="1"/>
+        <v>3.0625000000004912E-6</v>
+      </c>
       <c r="F16" s="19"/>
       <c r="G16" s="20">
         <v>3</v>
@@ -2266,10 +2323,13 @@
         <v>20.75</v>
       </c>
       <c r="J16" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0375000000000001</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="46">
+        <f t="shared" si="3"/>
+        <v>2.2500000000001707E-6</v>
+      </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -2353,7 +2413,10 @@
         <f t="shared" si="0"/>
         <v>1.3345</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="46">
+        <f t="shared" si="1"/>
+        <v>1.5625000000004886E-6</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20">
         <v>4</v>
@@ -2365,10 +2428,13 @@
         <v>20.72</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.036</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -2452,7 +2518,10 @@
         <f t="shared" si="0"/>
         <v>1.339</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="46">
+        <f t="shared" si="1"/>
+        <v>1.0562499999998395E-5</v>
+      </c>
       <c r="F18" s="19"/>
       <c r="G18" s="20">
         <v>5</v>
@@ -2464,10 +2533,13 @@
         <v>20.69</v>
       </c>
       <c r="J18" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0345</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="46">
+        <f t="shared" si="3"/>
+        <v>2.2500000000001707E-6</v>
+      </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -2551,7 +2623,10 @@
         <f t="shared" si="0"/>
         <v>1.3374999999999999</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="46">
+        <f t="shared" si="1"/>
+        <v>3.0624999999989369E-6</v>
+      </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20">
         <v>6</v>
@@ -2563,10 +2638,13 @@
         <v>20.71</v>
       </c>
       <c r="J19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0355000000000001</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="46">
+        <f t="shared" si="3"/>
+        <v>2.4999999999994493E-7</v>
+      </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -2650,7 +2728,10 @@
         <f t="shared" si="0"/>
         <v>1.3374999999999999</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="46">
+        <f t="shared" si="1"/>
+        <v>3.0624999999989369E-6</v>
+      </c>
       <c r="F20" s="19"/>
       <c r="G20" s="20">
         <v>7</v>
@@ -2662,10 +2743,13 @@
         <v>20.69</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0345</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="46">
+        <f t="shared" si="3"/>
+        <v>2.2500000000001707E-6</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -2749,7 +2833,10 @@
         <f t="shared" si="0"/>
         <v>1.3435000000000001</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="46">
+        <f t="shared" si="1"/>
+        <v>6.0062499999998817E-5</v>
+      </c>
       <c r="F21" s="19"/>
       <c r="G21" s="20">
         <v>8</v>
@@ -2761,10 +2848,13 @@
         <v>20.69</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0345</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="46">
+        <f t="shared" si="3"/>
+        <v>2.2500000000001707E-6</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -2848,7 +2938,10 @@
         <f t="shared" si="0"/>
         <v>1.327</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="46">
+        <f t="shared" si="1"/>
+        <v>7.6562500000004511E-5</v>
+      </c>
       <c r="F22" s="19"/>
       <c r="G22" s="20">
         <v>9</v>
@@ -2860,10 +2953,13 @@
         <v>20.62</v>
       </c>
       <c r="J22" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0310000000000001</v>
       </c>
-      <c r="K22" s="19"/>
+      <c r="K22" s="46">
+        <f t="shared" si="3"/>
+        <v>2.4999999999998934E-5</v>
+      </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
@@ -2947,7 +3043,10 @@
         <f t="shared" si="0"/>
         <v>1.339</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="46">
+        <f t="shared" si="1"/>
+        <v>1.0562499999998395E-5</v>
+      </c>
       <c r="F23" s="19"/>
       <c r="G23" s="30">
         <v>10</v>
@@ -2959,10 +3058,13 @@
         <v>20.82</v>
       </c>
       <c r="J23" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0409999999999999</v>
       </c>
-      <c r="K23" s="19"/>
+      <c r="K23" s="46">
+        <f t="shared" si="3"/>
+        <v>2.4999999999998934E-5</v>
+      </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -3129,7 +3231,10 @@
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="24"/>
+      <c r="D25" s="24">
+        <f>SQRT((SUM(E14:E23))/(10*9))</f>
+        <v>1.9933918609022078E-3</v>
+      </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="40" t="s">
@@ -3137,7 +3242,10 @@
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="24">
+        <f>SQRT((SUM(K14:K23))/(10*9))</f>
+        <v>8.9131613047471259E-4</v>
+      </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -3290,10 +3398,17 @@
       <c r="CA26" s="19"/>
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="19">
+        <f>((B3*0.001*$B$8*0.001*B6*D24*D24)/(4*PI()*PI()))</f>
+        <v>8.0836194207459286E-2</v>
+      </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -3371,10 +3486,15 @@
       <c r="CA27" s="19"/>
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="19">
+        <f>(D27-(B3*0.001*B6*B6*0.001*0.001))</f>
+        <v>3.0696819207459279E-2</v>
+      </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -3451,11 +3571,16 @@
       <c r="BZ28" s="19"/>
       <c r="CA28" s="19"/>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:79" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="19">
+        <f>((B3*0.001*B4*B4*0.001*0.001)/(12))</f>
+        <v>3.1078125000000002E-2</v>
+      </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -3533,8 +3658,12 @@
       <c r="CA29" s="19"/>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -3614,8 +3743,10 @@
       <c r="CA30" s="19"/>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3695,8 +3826,10 @@
       <c r="CA31" s="19"/>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -33271,7 +33404,8 @@
       <c r="BQ417" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A12:D12"/>
@@ -33290,8 +33424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
+++ b/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>k</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>u(l)</t>
+  </si>
+  <si>
+    <t>[kg]</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>u(io)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -604,6 +613,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3664,8 +3679,13 @@
       <c r="B30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="19">
+        <f>C3*0.001</f>
+        <v>1E-3</v>
+      </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -3747,8 +3767,13 @@
       <c r="B31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" ref="D31:D32" si="4">C4*0.001</f>
+        <v>1E-3</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -3830,8 +3855,13 @@
       <c r="B32" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="19">
+        <f>C6*0.001</f>
+        <v>1E-3</v>
+      </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -3909,10 +3939,17 @@
       <c r="CA32" s="19"/>
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="48">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19">
+        <f>SQRT((D30/(B3*0.001))^2+(D32/(B6*0.001))^2+((2*D25)/D24)^2)</f>
+        <v>4.9402833245746269E-3</v>
+      </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -3990,10 +4027,15 @@
       <c r="CA33" s="19"/>
     </row>
     <row r="34" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="19">
+        <f>D33*D27</f>
+        <v>3.9935370226518716E-4</v>
+      </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
@@ -4071,10 +4113,15 @@
       <c r="CA34" s="19"/>
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="D35" s="19">
+        <f>SQRT(D34^2+(((B6*0.001)^2)*D30)^2+(-2*B6*0.001*B3*0.001*D30)^2)</f>
+        <v>5.4605141025173783E-4</v>
+      </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -4152,7 +4199,7 @@
       <c r="CA35" s="19"/>
     </row>
     <row r="36" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -33404,8 +33451,9 @@
       <c r="BQ417" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A12:D12"/>
@@ -33424,8 +33472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
+++ b/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>k</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>u(io)</t>
+  </si>
+  <si>
+    <t>uc(Is(geom))</t>
+  </si>
+  <si>
+    <t>ta z 6</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -572,6 +578,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,17 +629,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,19 +953,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
@@ -1914,20 +1926,20 @@
       <c r="CA11" s="19"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
@@ -2113,7 +2125,7 @@
         <f>C14/B14</f>
         <v>1.3234999999999999</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="34">
         <f>(D14-$D$24)^2</f>
         <v>1.5006250000000775E-4</v>
       </c>
@@ -2131,7 +2143,7 @@
         <f>I14/H14</f>
         <v>1.036</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="34">
         <f>(J14-$J$24)^2</f>
         <v>0</v>
       </c>
@@ -2218,7 +2230,7 @@
         <f t="shared" ref="D15:D23" si="0">C15/B15</f>
         <v>1.3420000000000001</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="34">
         <f t="shared" ref="E15:E23" si="1">(D15-$D$24)^2</f>
         <v>3.9062499999998334E-5</v>
       </c>
@@ -2236,7 +2248,7 @@
         <f t="shared" ref="J15:J23" si="2">I15/H15</f>
         <v>1.0394999999999999</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="34">
         <f t="shared" ref="K15:K23" si="3">(J15-$J$24)^2</f>
         <v>1.2249999999998856E-5</v>
       </c>
@@ -2323,7 +2335,7 @@
         <f t="shared" si="0"/>
         <v>1.3340000000000001</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="34">
         <f t="shared" si="1"/>
         <v>3.0625000000004912E-6</v>
       </c>
@@ -2341,7 +2353,7 @@
         <f t="shared" si="2"/>
         <v>1.0375000000000001</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="34">
         <f t="shared" si="3"/>
         <v>2.2500000000001707E-6</v>
       </c>
@@ -2428,7 +2440,7 @@
         <f t="shared" si="0"/>
         <v>1.3345</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="34">
         <f t="shared" si="1"/>
         <v>1.5625000000004886E-6</v>
       </c>
@@ -2446,7 +2458,7 @@
         <f t="shared" si="2"/>
         <v>1.036</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2533,7 +2545,7 @@
         <f t="shared" si="0"/>
         <v>1.339</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="34">
         <f t="shared" si="1"/>
         <v>1.0562499999998395E-5</v>
       </c>
@@ -2551,7 +2563,7 @@
         <f t="shared" si="2"/>
         <v>1.0345</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="34">
         <f t="shared" si="3"/>
         <v>2.2500000000001707E-6</v>
       </c>
@@ -2638,7 +2650,7 @@
         <f t="shared" si="0"/>
         <v>1.3374999999999999</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="34">
         <f t="shared" si="1"/>
         <v>3.0624999999989369E-6</v>
       </c>
@@ -2656,7 +2668,7 @@
         <f t="shared" si="2"/>
         <v>1.0355000000000001</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="34">
         <f t="shared" si="3"/>
         <v>2.4999999999994493E-7</v>
       </c>
@@ -2743,7 +2755,7 @@
         <f t="shared" si="0"/>
         <v>1.3374999999999999</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="34">
         <f t="shared" si="1"/>
         <v>3.0624999999989369E-6</v>
       </c>
@@ -2761,7 +2773,7 @@
         <f t="shared" si="2"/>
         <v>1.0345</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="34">
         <f t="shared" si="3"/>
         <v>2.2500000000001707E-6</v>
       </c>
@@ -2848,7 +2860,7 @@
         <f t="shared" si="0"/>
         <v>1.3435000000000001</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="34">
         <f t="shared" si="1"/>
         <v>6.0062499999998817E-5</v>
       </c>
@@ -2866,7 +2878,7 @@
         <f t="shared" si="2"/>
         <v>1.0345</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="34">
         <f t="shared" si="3"/>
         <v>2.2500000000001707E-6</v>
       </c>
@@ -2953,7 +2965,7 @@
         <f t="shared" si="0"/>
         <v>1.327</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="34">
         <f t="shared" si="1"/>
         <v>7.6562500000004511E-5</v>
       </c>
@@ -2971,7 +2983,7 @@
         <f t="shared" si="2"/>
         <v>1.0310000000000001</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="34">
         <f t="shared" si="3"/>
         <v>2.4999999999998934E-5</v>
       </c>
@@ -3058,7 +3070,7 @@
         <f t="shared" si="0"/>
         <v>1.339</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="34">
         <f t="shared" si="1"/>
         <v>1.0562499999998395E-5</v>
       </c>
@@ -3076,7 +3088,7 @@
         <f t="shared" si="2"/>
         <v>1.0409999999999999</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="34">
         <f t="shared" si="3"/>
         <v>2.4999999999998934E-5</v>
       </c>
@@ -3150,22 +3162,22 @@
       <c r="CA23" s="19"/>
     </row>
     <row r="24" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="22">
         <f>AVERAGE(D14:D23)</f>
         <v>1.3357500000000002</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="22">
         <f>AVERAGE(J14:J23)</f>
         <v>1.036</v>
@@ -3241,22 +3253,22 @@
       <c r="CA24" s="19"/>
     </row>
     <row r="25" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="24">
         <f>SQRT((SUM(E14:E23))/(10*9))</f>
         <v>1.9933918609022078E-3</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="24">
         <f>SQRT((SUM(K14:K23))/(10*9))</f>
         <v>8.9131613047471259E-4</v>
@@ -3673,7 +3685,7 @@
       <c r="CA29" s="19"/>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -3763,7 +3775,7 @@
       <c r="CA30" s="19"/>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="19" t="s">
         <v>57</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>59</v>
       </c>
       <c r="D31" s="19">
-        <f t="shared" ref="D31:D32" si="4">C4*0.001</f>
+        <f t="shared" ref="D31" si="4">C4*0.001</f>
         <v>1E-3</v>
       </c>
       <c r="E31" s="19"/>
@@ -3851,7 +3863,7 @@
       <c r="CA31" s="19"/>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="19" t="s">
         <v>19</v>
       </c>
@@ -3939,7 +3951,7 @@
       <c r="CA32" s="19"/>
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="38">
         <v>5</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -4027,7 +4039,7 @@
       <c r="CA33" s="19"/>
     </row>
     <row r="34" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="19" t="s">
         <v>60</v>
       </c>
@@ -4113,7 +4125,7 @@
       <c r="CA34" s="19"/>
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="19" t="s">
         <v>22</v>
       </c>
@@ -4198,21 +4210,28 @@
       <c r="BZ35" s="19"/>
       <c r="CA35" s="19"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
+    <row r="36" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="51">
+        <f>(SQRT((D30/(B3*0.001))^2+(2*(D31/(B4*0.001)))^2)*D29)</f>
+        <v>9.5213083397188662E-5</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -4280,20 +4299,24 @@
       <c r="CA36" s="19"/>
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
+      <c r="A37" s="35">
+        <v>7</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -4361,20 +4384,20 @@
       <c r="CA37" s="19"/>
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -4442,20 +4465,20 @@
       <c r="CA38" s="19"/>
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -4523,20 +4546,20 @@
       <c r="CA39" s="19"/>
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -4604,20 +4627,20 @@
       <c r="CA40" s="19"/>
     </row>
     <row r="41" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -4685,20 +4708,20 @@
       <c r="CA41" s="19"/>
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -4766,20 +4789,20 @@
       <c r="CA42" s="19"/>
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -4847,20 +4870,20 @@
       <c r="CA43" s="19"/>
     </row>
     <row r="44" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -4928,20 +4951,20 @@
       <c r="CA44" s="19"/>
     </row>
     <row r="45" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -5009,20 +5032,20 @@
       <c r="CA45" s="19"/>
     </row>
     <row r="46" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
@@ -5090,20 +5113,20 @@
       <c r="CA46" s="19"/>
     </row>
     <row r="47" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -5171,20 +5194,20 @@
       <c r="CA47" s="19"/>
     </row>
     <row r="48" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -5252,20 +5275,20 @@
       <c r="CA48" s="19"/>
     </row>
     <row r="49" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -5333,20 +5356,20 @@
       <c r="CA49" s="19"/>
     </row>
     <row r="50" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -5414,20 +5437,20 @@
       <c r="CA50" s="19"/>
     </row>
     <row r="51" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -5495,20 +5518,20 @@
       <c r="CA51" s="19"/>
     </row>
     <row r="52" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -5576,20 +5599,20 @@
       <c r="CA52" s="19"/>
     </row>
     <row r="53" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -5657,20 +5680,20 @@
       <c r="CA53" s="19"/>
     </row>
     <row r="54" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -5738,20 +5761,20 @@
       <c r="CA54" s="19"/>
     </row>
     <row r="55" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -5819,20 +5842,20 @@
       <c r="CA55" s="19"/>
     </row>
     <row r="56" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -5900,20 +5923,20 @@
       <c r="CA56" s="19"/>
     </row>
     <row r="57" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
       <c r="O57" s="19"/>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -5981,20 +6004,20 @@
       <c r="CA57" s="19"/>
     </row>
     <row r="58" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="19"/>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -6062,20 +6085,20 @@
       <c r="CA58" s="19"/>
     </row>
     <row r="59" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -6143,20 +6166,20 @@
       <c r="CA59" s="19"/>
     </row>
     <row r="60" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
       <c r="O60" s="19"/>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -6224,20 +6247,20 @@
       <c r="CA60" s="19"/>
     </row>
     <row r="61" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
       <c r="O61" s="19"/>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -6305,20 +6328,20 @@
       <c r="CA61" s="19"/>
     </row>
     <row r="62" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
       <c r="O62" s="19"/>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -6386,20 +6409,20 @@
       <c r="CA62" s="19"/>
     </row>
     <row r="63" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
       <c r="O63" s="19"/>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -6467,20 +6490,20 @@
       <c r="CA63" s="19"/>
     </row>
     <row r="64" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
       <c r="O64" s="19"/>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -6548,20 +6571,20 @@
       <c r="CA64" s="19"/>
     </row>
     <row r="65" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
       <c r="O65" s="19"/>
       <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
@@ -6629,20 +6652,20 @@
       <c r="CA65" s="19"/>
     </row>
     <row r="66" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
       <c r="O66" s="19"/>
       <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
@@ -6710,20 +6733,20 @@
       <c r="CA66" s="19"/>
     </row>
     <row r="67" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
       <c r="O67" s="19"/>
       <c r="P67" s="19"/>
       <c r="Q67" s="19"/>
@@ -6791,20 +6814,20 @@
       <c r="CA67" s="19"/>
     </row>
     <row r="68" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
       <c r="O68" s="19"/>
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
@@ -6872,20 +6895,20 @@
       <c r="CA68" s="19"/>
     </row>
     <row r="69" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
@@ -6953,20 +6976,20 @@
       <c r="CA69" s="19"/>
     </row>
     <row r="70" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
       <c r="O70" s="19"/>
       <c r="P70" s="19"/>
       <c r="Q70" s="19"/>
@@ -7034,20 +7057,20 @@
       <c r="CA70" s="19"/>
     </row>
     <row r="71" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
       <c r="O71" s="19"/>
       <c r="P71" s="19"/>
       <c r="Q71" s="19"/>
@@ -7115,20 +7138,20 @@
       <c r="CA71" s="19"/>
     </row>
     <row r="72" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
       <c r="O72" s="19"/>
       <c r="P72" s="19"/>
       <c r="Q72" s="19"/>
@@ -7196,20 +7219,20 @@
       <c r="CA72" s="19"/>
     </row>
     <row r="73" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
       <c r="O73" s="19"/>
       <c r="P73" s="19"/>
       <c r="Q73" s="19"/>
@@ -7277,20 +7300,20 @@
       <c r="CA73" s="19"/>
     </row>
     <row r="74" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
       <c r="O74" s="19"/>
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
@@ -7358,20 +7381,20 @@
       <c r="CA74" s="19"/>
     </row>
     <row r="75" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
       <c r="O75" s="19"/>
       <c r="P75" s="19"/>
       <c r="Q75" s="19"/>
@@ -7439,20 +7462,20 @@
       <c r="CA75" s="19"/>
     </row>
     <row r="76" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
       <c r="O76" s="19"/>
       <c r="P76" s="19"/>
       <c r="Q76" s="19"/>
@@ -7520,20 +7543,20 @@
       <c r="CA76" s="19"/>
     </row>
     <row r="77" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
       <c r="O77" s="19"/>
       <c r="P77" s="19"/>
       <c r="Q77" s="19"/>
@@ -7601,20 +7624,20 @@
       <c r="CA77" s="19"/>
     </row>
     <row r="78" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
       <c r="O78" s="19"/>
       <c r="P78" s="19"/>
       <c r="Q78" s="19"/>
@@ -7682,20 +7705,20 @@
       <c r="CA78" s="19"/>
     </row>
     <row r="79" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
       <c r="O79" s="19"/>
       <c r="P79" s="19"/>
       <c r="Q79" s="19"/>
@@ -7763,20 +7786,20 @@
       <c r="CA79" s="19"/>
     </row>
     <row r="80" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
       <c r="O80" s="19"/>
       <c r="P80" s="19"/>
       <c r="Q80" s="19"/>
@@ -7844,20 +7867,20 @@
       <c r="CA80" s="19"/>
     </row>
     <row r="81" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
       <c r="O81" s="19"/>
       <c r="P81" s="19"/>
       <c r="Q81" s="19"/>
@@ -7925,20 +7948,20 @@
       <c r="CA81" s="19"/>
     </row>
     <row r="82" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
       <c r="O82" s="19"/>
       <c r="P82" s="19"/>
       <c r="Q82" s="19"/>
@@ -8006,20 +8029,20 @@
       <c r="CA82" s="19"/>
     </row>
     <row r="83" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
       <c r="O83" s="19"/>
       <c r="P83" s="19"/>
       <c r="Q83" s="19"/>
@@ -8087,20 +8110,20 @@
       <c r="CA83" s="19"/>
     </row>
     <row r="84" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
       <c r="O84" s="19"/>
       <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
@@ -8168,20 +8191,20 @@
       <c r="CA84" s="19"/>
     </row>
     <row r="85" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
       <c r="O85" s="19"/>
       <c r="P85" s="19"/>
       <c r="Q85" s="19"/>
@@ -8249,20 +8272,20 @@
       <c r="CA85" s="19"/>
     </row>
     <row r="86" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
       <c r="O86" s="19"/>
       <c r="P86" s="19"/>
       <c r="Q86" s="19"/>
@@ -8330,20 +8353,20 @@
       <c r="CA86" s="19"/>
     </row>
     <row r="87" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
       <c r="O87" s="19"/>
       <c r="P87" s="19"/>
       <c r="Q87" s="19"/>
@@ -8411,20 +8434,20 @@
       <c r="CA87" s="19"/>
     </row>
     <row r="88" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
       <c r="O88" s="19"/>
       <c r="P88" s="19"/>
       <c r="Q88" s="19"/>
@@ -8492,20 +8515,20 @@
       <c r="CA88" s="19"/>
     </row>
     <row r="89" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
       <c r="O89" s="19"/>
       <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
@@ -8573,20 +8596,20 @@
       <c r="CA89" s="19"/>
     </row>
     <row r="90" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
       <c r="O90" s="19"/>
       <c r="P90" s="19"/>
       <c r="Q90" s="19"/>
@@ -8654,20 +8677,20 @@
       <c r="CA90" s="19"/>
     </row>
     <row r="91" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
       <c r="O91" s="19"/>
       <c r="P91" s="19"/>
       <c r="Q91" s="19"/>
@@ -8735,20 +8758,20 @@
       <c r="CA91" s="19"/>
     </row>
     <row r="92" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
       <c r="O92" s="19"/>
       <c r="P92" s="19"/>
       <c r="Q92" s="19"/>
@@ -8816,20 +8839,20 @@
       <c r="CA92" s="19"/>
     </row>
     <row r="93" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
       <c r="O93" s="19"/>
       <c r="P93" s="19"/>
       <c r="Q93" s="19"/>
@@ -8897,20 +8920,20 @@
       <c r="CA93" s="19"/>
     </row>
     <row r="94" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
       <c r="O94" s="19"/>
       <c r="P94" s="19"/>
       <c r="Q94" s="19"/>
@@ -8978,20 +9001,20 @@
       <c r="CA94" s="19"/>
     </row>
     <row r="95" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
       <c r="O95" s="19"/>
       <c r="P95" s="19"/>
       <c r="Q95" s="19"/>
@@ -9059,20 +9082,20 @@
       <c r="CA95" s="19"/>
     </row>
     <row r="96" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
       <c r="O96" s="19"/>
       <c r="P96" s="19"/>
       <c r="Q96" s="19"/>
@@ -9140,20 +9163,20 @@
       <c r="CA96" s="19"/>
     </row>
     <row r="97" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
       <c r="O97" s="19"/>
       <c r="P97" s="19"/>
       <c r="Q97" s="19"/>
@@ -9221,20 +9244,20 @@
       <c r="CA97" s="19"/>
     </row>
     <row r="98" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
       <c r="O98" s="19"/>
       <c r="P98" s="19"/>
       <c r="Q98" s="19"/>
@@ -9302,20 +9325,20 @@
       <c r="CA98" s="19"/>
     </row>
     <row r="99" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
       <c r="O99" s="19"/>
       <c r="P99" s="19"/>
       <c r="Q99" s="19"/>
@@ -9383,20 +9406,20 @@
       <c r="CA99" s="19"/>
     </row>
     <row r="100" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
       <c r="O100" s="19"/>
       <c r="P100" s="19"/>
       <c r="Q100" s="19"/>
@@ -9464,20 +9487,20 @@
       <c r="CA100" s="19"/>
     </row>
     <row r="101" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
+      <c r="A101" s="35"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
       <c r="O101" s="19"/>
       <c r="P101" s="19"/>
       <c r="Q101" s="19"/>
@@ -9545,20 +9568,20 @@
       <c r="CA101" s="19"/>
     </row>
     <row r="102" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
       <c r="O102" s="19"/>
       <c r="P102" s="19"/>
       <c r="Q102" s="19"/>
@@ -9626,20 +9649,20 @@
       <c r="CA102" s="19"/>
     </row>
     <row r="103" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
       <c r="O103" s="19"/>
       <c r="P103" s="19"/>
       <c r="Q103" s="19"/>
@@ -9707,20 +9730,20 @@
       <c r="CA103" s="19"/>
     </row>
     <row r="104" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
       <c r="O104" s="19"/>
       <c r="P104" s="19"/>
       <c r="Q104" s="19"/>
@@ -9788,20 +9811,20 @@
       <c r="CA104" s="19"/>
     </row>
     <row r="105" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
+      <c r="A105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
       <c r="O105" s="19"/>
       <c r="P105" s="19"/>
       <c r="Q105" s="19"/>
@@ -9869,20 +9892,20 @@
       <c r="CA105" s="19"/>
     </row>
     <row r="106" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
+      <c r="N106" s="35"/>
       <c r="O106" s="19"/>
       <c r="P106" s="19"/>
       <c r="Q106" s="19"/>
@@ -9950,20 +9973,20 @@
       <c r="CA106" s="19"/>
     </row>
     <row r="107" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="35"/>
+      <c r="N107" s="35"/>
       <c r="O107" s="19"/>
       <c r="P107" s="19"/>
       <c r="Q107" s="19"/>
@@ -10031,20 +10054,20 @@
       <c r="CA107" s="19"/>
     </row>
     <row r="108" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="35"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35"/>
       <c r="O108" s="19"/>
       <c r="P108" s="19"/>
       <c r="Q108" s="19"/>
@@ -10112,20 +10135,20 @@
       <c r="CA108" s="19"/>
     </row>
     <row r="109" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="35"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="35"/>
+      <c r="N109" s="35"/>
       <c r="O109" s="19"/>
       <c r="P109" s="19"/>
       <c r="Q109" s="19"/>
@@ -10193,20 +10216,20 @@
       <c r="CA109" s="19"/>
     </row>
     <row r="110" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="35"/>
+      <c r="N110" s="35"/>
       <c r="O110" s="19"/>
       <c r="P110" s="19"/>
       <c r="Q110" s="19"/>
@@ -10274,20 +10297,20 @@
       <c r="CA110" s="19"/>
     </row>
     <row r="111" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="35"/>
       <c r="O111" s="19"/>
       <c r="P111" s="19"/>
       <c r="Q111" s="19"/>
@@ -10355,20 +10378,20 @@
       <c r="CA111" s="19"/>
     </row>
     <row r="112" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="35"/>
+      <c r="M112" s="35"/>
+      <c r="N112" s="35"/>
       <c r="O112" s="19"/>
       <c r="P112" s="19"/>
       <c r="Q112" s="19"/>
@@ -10436,20 +10459,20 @@
       <c r="CA112" s="19"/>
     </row>
     <row r="113" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
+      <c r="A113" s="35"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="35"/>
       <c r="O113" s="19"/>
       <c r="P113" s="19"/>
       <c r="Q113" s="19"/>
@@ -10517,20 +10540,20 @@
       <c r="CA113" s="19"/>
     </row>
     <row r="114" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="35"/>
+      <c r="L114" s="35"/>
+      <c r="M114" s="35"/>
+      <c r="N114" s="35"/>
       <c r="O114" s="19"/>
       <c r="P114" s="19"/>
       <c r="Q114" s="19"/>
@@ -10598,20 +10621,20 @@
       <c r="CA114" s="19"/>
     </row>
     <row r="115" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="35"/>
+      <c r="M115" s="35"/>
+      <c r="N115" s="35"/>
       <c r="O115" s="19"/>
       <c r="P115" s="19"/>
       <c r="Q115" s="19"/>
@@ -10679,20 +10702,20 @@
       <c r="CA115" s="19"/>
     </row>
     <row r="116" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="35"/>
+      <c r="M116" s="35"/>
+      <c r="N116" s="35"/>
       <c r="O116" s="19"/>
       <c r="P116" s="19"/>
       <c r="Q116" s="19"/>
@@ -10760,20 +10783,20 @@
       <c r="CA116" s="19"/>
     </row>
     <row r="117" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="35"/>
       <c r="O117" s="19"/>
       <c r="P117" s="19"/>
       <c r="Q117" s="19"/>
@@ -10841,20 +10864,20 @@
       <c r="CA117" s="19"/>
     </row>
     <row r="118" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="35"/>
+      <c r="N118" s="35"/>
       <c r="O118" s="19"/>
       <c r="P118" s="19"/>
       <c r="Q118" s="19"/>
@@ -10922,20 +10945,20 @@
       <c r="CA118" s="19"/>
     </row>
     <row r="119" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35"/>
       <c r="O119" s="19"/>
       <c r="P119" s="19"/>
       <c r="Q119" s="19"/>
@@ -11003,20 +11026,20 @@
       <c r="CA119" s="19"/>
     </row>
     <row r="120" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
+      <c r="N120" s="35"/>
       <c r="O120" s="19"/>
       <c r="P120" s="19"/>
       <c r="Q120" s="19"/>
@@ -11084,20 +11107,20 @@
       <c r="CA120" s="19"/>
     </row>
     <row r="121" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
-      <c r="M121" s="19"/>
-      <c r="N121" s="19"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="35"/>
+      <c r="K121" s="35"/>
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
+      <c r="N121" s="35"/>
       <c r="O121" s="19"/>
       <c r="P121" s="19"/>
       <c r="Q121" s="19"/>
@@ -11165,20 +11188,20 @@
       <c r="CA121" s="19"/>
     </row>
     <row r="122" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="35"/>
       <c r="O122" s="19"/>
       <c r="P122" s="19"/>
       <c r="Q122" s="19"/>
@@ -11246,20 +11269,20 @@
       <c r="CA122" s="19"/>
     </row>
     <row r="123" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
       <c r="O123" s="19"/>
       <c r="P123" s="19"/>
       <c r="Q123" s="19"/>
@@ -11327,20 +11350,20 @@
       <c r="CA123" s="19"/>
     </row>
     <row r="124" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
-      <c r="N124" s="19"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35"/>
       <c r="O124" s="19"/>
       <c r="P124" s="19"/>
       <c r="Q124" s="19"/>
@@ -11408,20 +11431,20 @@
       <c r="CA124" s="19"/>
     </row>
     <row r="125" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
-      <c r="N125" s="19"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
       <c r="O125" s="19"/>
       <c r="P125" s="19"/>
       <c r="Q125" s="19"/>
@@ -11489,20 +11512,20 @@
       <c r="CA125" s="19"/>
     </row>
     <row r="126" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
       <c r="O126" s="19"/>
       <c r="P126" s="19"/>
       <c r="Q126" s="19"/>
@@ -11570,20 +11593,20 @@
       <c r="CA126" s="19"/>
     </row>
     <row r="127" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="N127" s="19"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
+      <c r="N127" s="35"/>
       <c r="O127" s="19"/>
       <c r="P127" s="19"/>
       <c r="Q127" s="19"/>
@@ -11651,20 +11674,20 @@
       <c r="CA127" s="19"/>
     </row>
     <row r="128" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="19"/>
+      <c r="A128" s="35"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+      <c r="N128" s="35"/>
       <c r="O128" s="19"/>
       <c r="P128" s="19"/>
       <c r="Q128" s="19"/>
@@ -11732,20 +11755,20 @@
       <c r="CA128" s="19"/>
     </row>
     <row r="129" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
-      <c r="N129" s="19"/>
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+      <c r="N129" s="35"/>
       <c r="O129" s="19"/>
       <c r="P129" s="19"/>
       <c r="Q129" s="19"/>
@@ -11813,20 +11836,20 @@
       <c r="CA129" s="19"/>
     </row>
     <row r="130" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="19"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
       <c r="O130" s="19"/>
       <c r="P130" s="19"/>
       <c r="Q130" s="19"/>
@@ -11894,20 +11917,20 @@
       <c r="CA130" s="19"/>
     </row>
     <row r="131" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="19"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+      <c r="N131" s="35"/>
       <c r="O131" s="19"/>
       <c r="P131" s="19"/>
       <c r="Q131" s="19"/>
@@ -11975,20 +11998,20 @@
       <c r="CA131" s="19"/>
     </row>
     <row r="132" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="19"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+      <c r="N132" s="35"/>
       <c r="O132" s="19"/>
       <c r="P132" s="19"/>
       <c r="Q132" s="19"/>
@@ -12056,20 +12079,20 @@
       <c r="CA132" s="19"/>
     </row>
     <row r="133" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35"/>
       <c r="O133" s="19"/>
       <c r="P133" s="19"/>
       <c r="Q133" s="19"/>
@@ -12137,20 +12160,20 @@
       <c r="CA133" s="19"/>
     </row>
     <row r="134" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
+      <c r="N134" s="35"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="19"/>
@@ -12218,20 +12241,20 @@
       <c r="CA134" s="19"/>
     </row>
     <row r="135" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
+      <c r="A135" s="35"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
+      <c r="N135" s="35"/>
       <c r="O135" s="19"/>
       <c r="P135" s="19"/>
       <c r="Q135" s="19"/>
@@ -12299,20 +12322,20 @@
       <c r="CA135" s="19"/>
     </row>
     <row r="136" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A136" s="19"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
+      <c r="A136" s="35"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
+      <c r="N136" s="35"/>
       <c r="O136" s="19"/>
       <c r="P136" s="19"/>
       <c r="Q136" s="19"/>
@@ -12380,20 +12403,20 @@
       <c r="CA136" s="19"/>
     </row>
     <row r="137" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
+      <c r="A137" s="35"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
       <c r="O137" s="19"/>
       <c r="P137" s="19"/>
       <c r="Q137" s="19"/>
@@ -12461,20 +12484,20 @@
       <c r="CA137" s="19"/>
     </row>
     <row r="138" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
+      <c r="A138" s="35"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
+      <c r="N138" s="35"/>
       <c r="O138" s="19"/>
       <c r="P138" s="19"/>
       <c r="Q138" s="19"/>
@@ -12542,20 +12565,20 @@
       <c r="CA138" s="19"/>
     </row>
     <row r="139" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
+      <c r="N139" s="35"/>
       <c r="O139" s="19"/>
       <c r="P139" s="19"/>
       <c r="Q139" s="19"/>
@@ -12623,20 +12646,20 @@
       <c r="CA139" s="19"/>
     </row>
     <row r="140" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A140" s="19"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
+      <c r="N140" s="35"/>
       <c r="O140" s="19"/>
       <c r="P140" s="19"/>
       <c r="Q140" s="19"/>
@@ -12704,20 +12727,20 @@
       <c r="CA140" s="19"/>
     </row>
     <row r="141" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
+      <c r="N141" s="35"/>
       <c r="O141" s="19"/>
       <c r="P141" s="19"/>
       <c r="Q141" s="19"/>
@@ -12785,20 +12808,20 @@
       <c r="CA141" s="19"/>
     </row>
     <row r="142" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
+      <c r="A142" s="35"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="35"/>
+      <c r="M142" s="35"/>
+      <c r="N142" s="35"/>
       <c r="O142" s="19"/>
       <c r="P142" s="19"/>
       <c r="Q142" s="19"/>
@@ -12866,20 +12889,20 @@
       <c r="CA142" s="19"/>
     </row>
     <row r="143" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
+      <c r="A143" s="35"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
+      <c r="N143" s="35"/>
       <c r="O143" s="19"/>
       <c r="P143" s="19"/>
       <c r="Q143" s="19"/>
@@ -12947,20 +12970,20 @@
       <c r="CA143" s="19"/>
     </row>
     <row r="144" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A144" s="19"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
+      <c r="J144" s="35"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="35"/>
+      <c r="M144" s="35"/>
+      <c r="N144" s="35"/>
       <c r="O144" s="19"/>
       <c r="P144" s="19"/>
       <c r="Q144" s="19"/>
@@ -13028,20 +13051,20 @@
       <c r="CA144" s="19"/>
     </row>
     <row r="145" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="35"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="35"/>
+      <c r="M145" s="35"/>
+      <c r="N145" s="35"/>
       <c r="O145" s="19"/>
       <c r="P145" s="19"/>
       <c r="Q145" s="19"/>
@@ -13109,20 +13132,20 @@
       <c r="CA145" s="19"/>
     </row>
     <row r="146" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="35"/>
+      <c r="M146" s="35"/>
+      <c r="N146" s="35"/>
       <c r="O146" s="19"/>
       <c r="P146" s="19"/>
       <c r="Q146" s="19"/>
@@ -13190,20 +13213,20 @@
       <c r="CA146" s="19"/>
     </row>
     <row r="147" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="35"/>
+      <c r="M147" s="35"/>
+      <c r="N147" s="35"/>
       <c r="O147" s="19"/>
       <c r="P147" s="19"/>
       <c r="Q147" s="19"/>
@@ -13271,20 +13294,20 @@
       <c r="CA147" s="19"/>
     </row>
     <row r="148" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
+      <c r="A148" s="35"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="35"/>
+      <c r="M148" s="35"/>
+      <c r="N148" s="35"/>
       <c r="O148" s="19"/>
       <c r="P148" s="19"/>
       <c r="Q148" s="19"/>
@@ -13352,20 +13375,20 @@
       <c r="CA148" s="19"/>
     </row>
     <row r="149" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A149" s="19"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
+      <c r="A149" s="35"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
+      <c r="J149" s="35"/>
+      <c r="K149" s="35"/>
+      <c r="L149" s="35"/>
+      <c r="M149" s="35"/>
+      <c r="N149" s="35"/>
       <c r="O149" s="19"/>
       <c r="P149" s="19"/>
       <c r="Q149" s="19"/>
@@ -13433,20 +13456,20 @@
       <c r="CA149" s="19"/>
     </row>
     <row r="150" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
+      <c r="A150" s="35"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="35"/>
+      <c r="J150" s="35"/>
+      <c r="K150" s="35"/>
+      <c r="L150" s="35"/>
+      <c r="M150" s="35"/>
+      <c r="N150" s="35"/>
       <c r="O150" s="19"/>
       <c r="P150" s="19"/>
       <c r="Q150" s="19"/>
@@ -13514,20 +13537,20 @@
       <c r="CA150" s="19"/>
     </row>
     <row r="151" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+      <c r="J151" s="35"/>
+      <c r="K151" s="35"/>
+      <c r="L151" s="35"/>
+      <c r="M151" s="35"/>
+      <c r="N151" s="35"/>
       <c r="O151" s="19"/>
       <c r="P151" s="19"/>
       <c r="Q151" s="19"/>
@@ -13595,20 +13618,20 @@
       <c r="CA151" s="19"/>
     </row>
     <row r="152" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A152" s="19"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+      <c r="J152" s="35"/>
+      <c r="K152" s="35"/>
+      <c r="L152" s="35"/>
+      <c r="M152" s="35"/>
+      <c r="N152" s="35"/>
       <c r="O152" s="19"/>
       <c r="P152" s="19"/>
       <c r="Q152" s="19"/>
@@ -13676,20 +13699,20 @@
       <c r="CA152" s="19"/>
     </row>
     <row r="153" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="35"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+      <c r="J153" s="35"/>
+      <c r="K153" s="35"/>
+      <c r="L153" s="35"/>
+      <c r="M153" s="35"/>
+      <c r="N153" s="35"/>
       <c r="O153" s="19"/>
       <c r="P153" s="19"/>
       <c r="Q153" s="19"/>
@@ -13757,20 +13780,20 @@
       <c r="CA153" s="19"/>
     </row>
     <row r="154" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
+      <c r="J154" s="35"/>
+      <c r="K154" s="35"/>
+      <c r="L154" s="35"/>
+      <c r="M154" s="35"/>
+      <c r="N154" s="35"/>
       <c r="O154" s="19"/>
       <c r="P154" s="19"/>
       <c r="Q154" s="19"/>
@@ -13838,20 +13861,20 @@
       <c r="CA154" s="19"/>
     </row>
     <row r="155" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="35"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
+      <c r="J155" s="35"/>
+      <c r="K155" s="35"/>
+      <c r="L155" s="35"/>
+      <c r="M155" s="35"/>
+      <c r="N155" s="35"/>
       <c r="O155" s="19"/>
       <c r="P155" s="19"/>
       <c r="Q155" s="19"/>
@@ -13919,20 +13942,20 @@
       <c r="CA155" s="19"/>
     </row>
     <row r="156" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
+      <c r="J156" s="35"/>
+      <c r="K156" s="35"/>
+      <c r="L156" s="35"/>
+      <c r="M156" s="35"/>
+      <c r="N156" s="35"/>
       <c r="O156" s="19"/>
       <c r="P156" s="19"/>
       <c r="Q156" s="19"/>
@@ -14000,20 +14023,20 @@
       <c r="CA156" s="19"/>
     </row>
     <row r="157" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A157" s="19"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
+      <c r="J157" s="35"/>
+      <c r="K157" s="35"/>
+      <c r="L157" s="35"/>
+      <c r="M157" s="35"/>
+      <c r="N157" s="35"/>
       <c r="O157" s="19"/>
       <c r="P157" s="19"/>
       <c r="Q157" s="19"/>
@@ -14081,20 +14104,20 @@
       <c r="CA157" s="19"/>
     </row>
     <row r="158" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+      <c r="J158" s="35"/>
+      <c r="K158" s="35"/>
+      <c r="L158" s="35"/>
+      <c r="M158" s="35"/>
+      <c r="N158" s="35"/>
       <c r="O158" s="19"/>
       <c r="P158" s="19"/>
       <c r="Q158" s="19"/>
@@ -14162,20 +14185,20 @@
       <c r="CA158" s="19"/>
     </row>
     <row r="159" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="35"/>
+      <c r="J159" s="35"/>
+      <c r="K159" s="35"/>
+      <c r="L159" s="35"/>
+      <c r="M159" s="35"/>
+      <c r="N159" s="35"/>
       <c r="O159" s="19"/>
       <c r="P159" s="19"/>
       <c r="Q159" s="19"/>
@@ -14243,20 +14266,20 @@
       <c r="CA159" s="19"/>
     </row>
     <row r="160" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
+      <c r="J160" s="35"/>
+      <c r="K160" s="35"/>
+      <c r="L160" s="35"/>
+      <c r="M160" s="35"/>
+      <c r="N160" s="35"/>
       <c r="O160" s="19"/>
       <c r="P160" s="19"/>
       <c r="Q160" s="19"/>
@@ -14324,20 +14347,20 @@
       <c r="CA160" s="19"/>
     </row>
     <row r="161" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="35"/>
+      <c r="J161" s="35"/>
+      <c r="K161" s="35"/>
+      <c r="L161" s="35"/>
+      <c r="M161" s="35"/>
+      <c r="N161" s="35"/>
       <c r="O161" s="19"/>
       <c r="P161" s="19"/>
       <c r="Q161" s="19"/>
@@ -14405,20 +14428,20 @@
       <c r="CA161" s="19"/>
     </row>
     <row r="162" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A162" s="19"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="35"/>
+      <c r="J162" s="35"/>
+      <c r="K162" s="35"/>
+      <c r="L162" s="35"/>
+      <c r="M162" s="35"/>
+      <c r="N162" s="35"/>
       <c r="O162" s="19"/>
       <c r="P162" s="19"/>
       <c r="Q162" s="19"/>
@@ -14486,20 +14509,20 @@
       <c r="CA162" s="19"/>
     </row>
     <row r="163" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A163" s="19"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="35"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="35"/>
+      <c r="J163" s="35"/>
+      <c r="K163" s="35"/>
+      <c r="L163" s="35"/>
+      <c r="M163" s="35"/>
+      <c r="N163" s="35"/>
       <c r="O163" s="19"/>
       <c r="P163" s="19"/>
       <c r="Q163" s="19"/>
@@ -14567,20 +14590,20 @@
       <c r="CA163" s="19"/>
     </row>
     <row r="164" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A164" s="19"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="35"/>
+      <c r="F164" s="35"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="35"/>
+      <c r="J164" s="35"/>
+      <c r="K164" s="35"/>
+      <c r="L164" s="35"/>
+      <c r="M164" s="35"/>
+      <c r="N164" s="35"/>
       <c r="O164" s="19"/>
       <c r="P164" s="19"/>
       <c r="Q164" s="19"/>
@@ -14648,20 +14671,20 @@
       <c r="CA164" s="19"/>
     </row>
     <row r="165" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A165" s="19"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="35"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="35"/>
+      <c r="J165" s="35"/>
+      <c r="K165" s="35"/>
+      <c r="L165" s="35"/>
+      <c r="M165" s="35"/>
+      <c r="N165" s="35"/>
       <c r="O165" s="19"/>
       <c r="P165" s="19"/>
       <c r="Q165" s="19"/>
@@ -14729,20 +14752,20 @@
       <c r="CA165" s="19"/>
     </row>
     <row r="166" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A166" s="19"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+      <c r="J166" s="35"/>
+      <c r="K166" s="35"/>
+      <c r="L166" s="35"/>
+      <c r="M166" s="35"/>
+      <c r="N166" s="35"/>
       <c r="O166" s="19"/>
       <c r="P166" s="19"/>
       <c r="Q166" s="19"/>
@@ -14810,20 +14833,20 @@
       <c r="CA166" s="19"/>
     </row>
     <row r="167" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A167" s="19"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
+      <c r="A167" s="35"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="35"/>
+      <c r="L167" s="35"/>
+      <c r="M167" s="35"/>
+      <c r="N167" s="35"/>
       <c r="O167" s="19"/>
       <c r="P167" s="19"/>
       <c r="Q167" s="19"/>
@@ -14891,20 +14914,20 @@
       <c r="CA167" s="19"/>
     </row>
     <row r="168" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A168" s="19"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="35"/>
+      <c r="L168" s="35"/>
+      <c r="M168" s="35"/>
+      <c r="N168" s="35"/>
       <c r="O168" s="19"/>
       <c r="P168" s="19"/>
       <c r="Q168" s="19"/>
@@ -33451,7 +33474,9 @@
       <c r="BQ417" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:D39"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A1:C1"/>
@@ -33473,7 +33498,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33484,20 +33509,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33908,11 +33933,11 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -34136,11 +34161,11 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
         <v>12</v>

--- a/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
+++ b/Lab 2 - Wahało fizyczne/PomiaryWahadloFizyczne.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>k</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>ta z 6</t>
+  </si>
+  <si>
+    <t>u(wym-gem)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -589,6 +592,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,11 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -939,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,25 +956,27 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -1928,20 +1937,20 @@
       <c r="CA11" s="18"/>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -3164,22 +3173,22 @@
       <c r="CA23" s="18"/>
     </row>
     <row r="24" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="21">
         <f>AVERAGE(D14:D23)</f>
         <v>1.3357500000000002</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="47"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="21">
         <f>AVERAGE(J14:J23)</f>
         <v>1.036</v>
@@ -3255,22 +3264,22 @@
       <c r="CA24" s="18"/>
     </row>
     <row r="25" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="23">
         <f>SQRT((SUM(E14:E23))/(10*9))</f>
         <v>1.9933918609022078E-3</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
       <c r="J25" s="23">
         <f>SQRT((SUM(K14:K23))/(10*9))</f>
         <v>8.9131613047471259E-4</v>
@@ -3704,7 +3713,7 @@
       <c r="CA29" s="18"/>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -3719,14 +3728,17 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="40" t="s">
         <v>56</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="18">
+        <f>I3*0.001/SQRT(3)</f>
+        <v>5.773502691896258E-4</v>
+      </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -3797,8 +3809,8 @@
       <c r="BZ30" s="18"/>
       <c r="CA30" s="18"/>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
       <c r="B31" s="18" t="s">
         <v>57</v>
       </c>
@@ -3811,12 +3823,15 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="36"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="34" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="J31" s="33">
+        <f>I4*0.001/SQRT(3)</f>
+        <v>5.7735026918962585E-5</v>
+      </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -3888,7 +3903,7 @@
       <c r="CA31" s="18"/>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="18" t="s">
         <v>19</v>
       </c>
@@ -3901,10 +3916,8 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="34"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -3978,7 +3991,7 @@
       <c r="CA32" s="18"/>
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
+      <c r="A33" s="41">
         <v>5</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -3991,14 +4004,17 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="37">
+      <c r="G33" s="41">
         <v>5</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="J33" s="18">
+        <f>SQRT((J30/(H3*0.001))^2+(J31/(H9*0.001))^2+((2*J25)/J24)^2)</f>
+        <v>1.8249833689050125E-3</v>
+      </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -4070,7 +4086,7 @@
       <c r="CA33" s="18"/>
     </row>
     <row r="34" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="18" t="s">
         <v>60</v>
       </c>
@@ -4081,12 +4097,15 @@
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="37"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="34" t="s">
         <v>60</v>
       </c>
       <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="J34" s="33">
+        <f>J33*J27</f>
+        <v>8.7774855868526716E-5</v>
+      </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -4158,7 +4177,7 @@
       <c r="CA34" s="18"/>
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="18" t="s">
         <v>22</v>
       </c>
@@ -4169,12 +4188,15 @@
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="37"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="34" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="J35" s="36">
+        <f>SQRT(J34^2+(((H9*0.001)^2)*J30)^2+(-2*H9*0.001*H3*0.001*J30)^2)</f>
+        <v>2.2620545307414639E-4</v>
+      </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -4253,7 +4275,7 @@
         <v>61</v>
       </c>
       <c r="C36" s="34"/>
-      <c r="D36" s="50">
+      <c r="D36" s="37">
         <f>(SQRT((D30/(B3*0.001))^2+(2*(D31/(B4*0.001)))^2)*D29)</f>
         <v>5.4971299329741155E-5</v>
       </c>
@@ -4266,7 +4288,10 @@
         <v>61</v>
       </c>
       <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
+      <c r="J36" s="33">
+        <f>(SQRT(2*((J30/(H3*0.001))^2)+(2*(J31/(H6*0.001)))^2+(2*(J31/(H7*0.001)))^2)*J29)</f>
+        <v>3.3332162852024711E-5</v>
+      </c>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -4351,7 +4376,9 @@
       <c r="G37" s="34">
         <v>7</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="34" t="s">
+        <v>62</v>
+      </c>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
@@ -4425,10 +4452,10 @@
       <c r="CA37" s="18"/>
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -4506,10 +4533,10 @@
       <c r="CA38" s="18"/>
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -4587,7 +4614,7 @@
       <c r="CA39" s="18"/>
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -4668,7 +4695,7 @@
       <c r="CA40" s="18"/>
     </row>
     <row r="41" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -33516,12 +33543,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A12:D12"/>
@@ -33530,6 +33551,12 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33540,8 +33567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33553,20 +33580,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33977,11 +34004,11 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>12</v>
@@ -34088,7 +34115,7 @@
       <c r="H20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="54">
         <f>I19*I31</f>
         <v>8.5342967843876071E-5</v>
       </c>
@@ -34109,7 +34136,7 @@
       <c r="H21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="54">
         <f>SQRT((I20)^2+(I30^2*I17)^2+(2*I30*I29*I18)^2)</f>
         <v>8.6045440799331518E-5</v>
       </c>
@@ -34181,7 +34208,7 @@
       <c r="A26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="38">
         <f>B25*B32</f>
         <v>5.4296841817973006E-5</v>
       </c>
@@ -34193,7 +34220,7 @@
       <c r="H26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="39">
         <f>I25*I32</f>
         <v>1.4817031716503434E-5</v>
       </c>
@@ -34205,11 +34232,11 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
         <v>12</v>
